--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4 /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4 /projet4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFCC801-D5D5-F24F-B4BE-AEAFA72D7AF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB0C30-6A91-8145-B8B4-5DDFF2753217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Categorie</t>
   </si>
@@ -40,48 +40,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
-    <t>Création de contenu par recherche de mots clés</t>
-  </si>
-  <si>
-    <t>Le site n'a pas de mots clés</t>
-  </si>
-  <si>
-    <t>un bon site s'identifie par un ou des mots clés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'absence de mots clés rend difficile le référencement d'un site </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisir des mots clés pour le site </t>
-  </si>
-  <si>
-    <t>Création de contenu par recherche de mots clés "Opencalssrooms"</t>
-  </si>
-  <si>
-    <t>H1 est mal positionné</t>
-  </si>
-  <si>
-    <t>La taille des images (png, bmp, jpg)</t>
-  </si>
-  <si>
-    <t>Absence de méta description title</t>
-  </si>
-  <si>
-    <t>Balise default</t>
-  </si>
-  <si>
-    <t>Référence géographique</t>
-  </si>
-  <si>
-    <t>Mal structurée la page d'accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Java Script n'est pas fait pour coder un site en entier </t>
-  </si>
-  <si>
     <t xml:space="preserve">La balise méta-title </t>
   </si>
   <si>
@@ -97,18 +55,12 @@
     <t xml:space="preserve">Sans elle, les moteurs de recherche ne peuvent pas lire un site, empêche le site d'apparaître. </t>
   </si>
   <si>
-    <t xml:space="preserve">Structuration </t>
-  </si>
-  <si>
     <t xml:space="preserve">Taille des images et contenu </t>
   </si>
   <si>
     <t>Vérification du chargement du site</t>
   </si>
   <si>
-    <t>Architecture incohérente</t>
-  </si>
-  <si>
     <t>Création liens de base (réseaux sociaux)</t>
   </si>
   <si>
@@ -146,6 +98,90 @@
   </si>
   <si>
     <t xml:space="preserve">le contenu de cette balise doit être en index </t>
+  </si>
+  <si>
+    <t>Existence du format .bmp, tros gros, chargement long</t>
+  </si>
+  <si>
+    <t>Utiliser des images au format JPEG ou JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le JPEG ou le JPG se charge beacoup plus vite que le PNG ou autre </t>
+  </si>
+  <si>
+    <t>Modifiez les formats .bmp en JPEG ou JPG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insérez des images dans le cours Apprendre à créer votre site web avec HTML5 et CSS3. </t>
+  </si>
+  <si>
+    <t>Perte de vitesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauvais référencement </t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respecter la hiérarchie de votre contenu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De H1 on vient à h3 pas de respect de la hiérarchie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classer les titres et sous titres en les hiérarchisant </t>
+  </si>
+  <si>
+    <t>Après H1 on arrive directement à H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classer les titres pour apporter de la valeur à chacun des titres </t>
+  </si>
+  <si>
+    <t>www.anthedesigne.fr</t>
+  </si>
+  <si>
+    <t>Adapter votre site aux mobiles</t>
+  </si>
+  <si>
+    <t>Améliorer la qualité des textes d'ancre (anchor text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le lien vers la page n'a pas d'ancre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le texte d'ancre entre les balises d'ancrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus l'ancrage est pertienent plus il facilitera la navigation des utilisateurs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrre les balises &lt;a href="" &gt; &lt;/a&gt; en ancrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guide de démarrage google - Optimisation pour les moteurs de recherche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser le rel="nofollow" à l'élément rel d'un lien </t>
+  </si>
+  <si>
+    <t>Absence totale du lien dans le site</t>
+  </si>
+  <si>
+    <t>Google dit qu'on peut systématiser la chose via le format &lt;meta name="robot" content="nofollow"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre ce format précédent dans l'entête du code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidelines pour commencer en référencement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsive design </t>
+  </si>
+  <si>
+    <t>(Voir le site de google, microsoft)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +207,9 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -189,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,19 +242,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,14 +501,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -491,161 +559,248 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1770,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{92376FC2-E461-144D-828C-64C4FF7CD47B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4 /projet4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB0C30-6A91-8145-B8B4-5DDFF2753217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A4AC2-3DE8-6341-8134-8602D63D014F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Categorie</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>(Voir le site de google, microsoft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version principale du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le site n'a pas de version en ligne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenu dupliquer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le site a un contenu dupliqué </t>
+  </si>
+  <si>
+    <t>meta name ''nofollow''</t>
   </si>
 </sst>
 </file>
@@ -501,7 +516,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,7 +614,9 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -687,8 +704,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4 /projet4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A4AC2-3DE8-6341-8134-8602D63D014F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2974E-93BF-CA4B-AAEE-4254CB12CC01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -516,7 +517,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -705,22 +706,37 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">

--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4 /projet4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2974E-93BF-CA4B-AAEE-4254CB12CC01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE4838-A49A-2D4A-8A0B-BEC99B612DDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
